--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -425,10 +449,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -472,28 +496,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="3">
+      <c r="A12" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -518,28 +542,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -714,10 +738,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -761,28 +785,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="3">
+      <c r="A22" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="D22" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="3">
+      <c r="G22" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -807,28 +831,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="C24" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="D24" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="3">
+      <c r="I24" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1177,10 +1201,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1224,28 +1248,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="A38" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1270,28 +1294,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1524,10 +1548,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1571,28 +1595,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="3">
+      <c r="A50" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="D50" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1617,28 +1641,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="3">
+      <c r="C52" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="3">
+      <c r="D52" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="3">
+      <c r="I52" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1929,10 +1953,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1976,28 +2000,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="3">
+      <c r="A64" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="3">
+      <c r="C64" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="3">
+      <c r="D64" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2022,28 +2046,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="3">
+      <c r="C66" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="3">
+      <c r="D66" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="3">
+      <c r="I66" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2218,10 +2242,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2265,28 +2289,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="3">
+      <c r="A74" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2311,28 +2335,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="3">
+      <c r="C76" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="3">
+      <c r="D76" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="3">
+      <c r="I76" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2478,10 +2502,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K81" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2525,28 +2549,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="3">
+      <c r="A83" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="3">
+      <c r="B83" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="3">
+      <c r="C83" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D83" t="s" s="3">
+      <c r="D83" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="3">
+      <c r="F83" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="3">
+      <c r="G83" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="3">
+      <c r="H83" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2571,28 +2595,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="3">
+      <c r="C85" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="3">
+      <c r="D85" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="3">
+      <c r="I85" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2825,10 +2849,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="K93" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2872,28 +2896,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="3">
+      <c r="A95" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2918,28 +2942,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="3">
+      <c r="B97" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="3">
+      <c r="C97" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="3">
+      <c r="D97" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="3">
+      <c r="F97" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="3">
+      <c r="G97" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="3">
+      <c r="H97" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="3">
+      <c r="I97" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3114,10 +3138,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="J103" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="3" t="s">
+      <c r="K103" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3161,28 +3185,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="3">
+      <c r="A105" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="3">
+      <c r="C105" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="3">
+      <c r="D105" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3207,28 +3231,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="3">
+      <c r="C107" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="3">
+      <c r="D107" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="3">
+      <c r="I107" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3374,10 +3398,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="J112" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="3" t="s">
+      <c r="K112" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3421,28 +3445,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="3">
+      <c r="A114" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3467,28 +3491,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="3">
+      <c r="C116" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="3">
+      <c r="D116" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="3">
+      <c r="I116" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3605,10 +3629,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="J120" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="3" t="s">
+      <c r="K120" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3652,28 +3676,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="A122" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="3">
+      <c r="C122" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="3">
+      <c r="D122" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3698,28 +3722,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="3">
+      <c r="I124" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3981,10 +4005,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="J133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="3" t="s">
+      <c r="K133" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4028,28 +4052,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="3">
+      <c r="A135" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4074,28 +4098,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="3">
+      <c r="C137" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="3">
+      <c r="D137" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="3">
+      <c r="I137" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4241,10 +4265,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="3" t="s">
+      <c r="J142" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="3" t="s">
+      <c r="K142" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4288,28 +4312,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="3">
+      <c r="A144" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4334,28 +4358,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="3">
+      <c r="C146" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="3">
+      <c r="D146" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="3">
+      <c r="I146" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4443,10 +4467,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="3" t="s">
+      <c r="J149" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="3" t="s">
+      <c r="K149" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4490,28 +4514,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="A151" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="3">
+      <c r="C151" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="3">
+      <c r="D151" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4536,28 +4560,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="3">
+      <c r="I153" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4761,10 +4785,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="3" t="s">
+      <c r="J160" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="3" t="s">
+      <c r="K160" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4808,28 +4832,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="3">
+      <c r="A162" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="3">
+      <c r="C162" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="3">
+      <c r="D162" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4854,28 +4878,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="3">
+      <c r="C164" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="3">
+      <c r="D164" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="3">
+      <c r="I164" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4934,10 +4958,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J166" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="3" t="s">
+      <c r="K166" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4981,28 +5005,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="3">
+      <c r="A168" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5027,28 +5051,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="3">
+      <c r="C170" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="3">
+      <c r="D170" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="3">
+      <c r="I170" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5165,10 +5189,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="3" t="s">
+      <c r="J174" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K174" s="3" t="s">
+      <c r="K174" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5212,28 +5236,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="3">
+      <c r="A176" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="3">
+      <c r="B176" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="3">
+      <c r="C176" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D176" t="s" s="3">
+      <c r="D176" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="3">
+      <c r="E176" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="3">
+      <c r="F176" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="3">
+      <c r="G176" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="3">
+      <c r="H176" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5258,28 +5282,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="3">
+      <c r="C178" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="3">
+      <c r="D178" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="3">
+      <c r="I178" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5425,10 +5449,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="3" t="s">
+      <c r="J183" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K183" s="3" t="s">
+      <c r="K183" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5472,28 +5496,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="3">
+      <c r="A185" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="3">
+      <c r="C185" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D185" t="s" s="3">
+      <c r="D185" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5518,28 +5542,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="3">
+      <c r="C187" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="3">
+      <c r="D187" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="3">
+      <c r="I187" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5685,10 +5709,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="3" t="s">
+      <c r="J192" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K192" s="3" t="s">
+      <c r="K192" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5732,28 +5756,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="3">
+      <c r="A194" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="3">
+      <c r="C194" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D194" t="s" s="3">
+      <c r="D194" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5778,28 +5802,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="3">
+      <c r="B196" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="3">
+      <c r="C196" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="3">
+      <c r="D196" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="3">
+      <c r="E196" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="3">
+      <c r="F196" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="3">
+      <c r="G196" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="3">
+      <c r="H196" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="3">
+      <c r="I196" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5945,10 +5969,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="3" t="s">
+      <c r="J201" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K201" s="3" t="s">
+      <c r="K201" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
